--- a/data/evaluation/evaluation_Center_Spring_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Kohlrabi.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3972.567593025055</v>
+        <v>4023.504393104235</v>
       </c>
       <c r="C4" t="n">
-        <v>24857162.86863646</v>
+        <v>25540813.83752606</v>
       </c>
       <c r="D4" t="n">
-        <v>4985.695825924046</v>
+        <v>5053.792025551315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1868203986404524</v>
+        <v>0.1644553755165883</v>
       </c>
     </row>
     <row r="5">
